--- a/Состояние работы.xlsx
+++ b/Состояние работы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yp-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D56D3AA-D381-4BC7-BE8B-89F2DA7F8A94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3E516A-E2EE-48FC-A270-8E3435C585F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{105C7E11-8444-4C91-AEB4-669563F62DA7}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +487,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -508,7 +508,7 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">

--- a/Состояние работы.xlsx
+++ b/Состояние работы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yp-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3E516A-E2EE-48FC-A270-8E3435C585F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC1A0E5-87E7-43F2-981D-4CB2C4CB3559}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{105C7E11-8444-4C91-AEB4-669563F62DA7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Теория</t>
   </si>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,8 +78,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +103,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,11 +140,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -448,7 +464,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,14 +531,14 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="2"/>
     </row>
   </sheetData>

--- a/Состояние работы.xlsx
+++ b/Состояние работы.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yp-python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC1A0E5-87E7-43F2-981D-4CB2C4CB3559}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53734E5B-5F3E-410A-8260-D984EA4B9CF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{105C7E11-8444-4C91-AEB4-669563F62DA7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{105C7E11-8444-4C91-AEB4-669563F62DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Теория</t>
   </si>
@@ -464,17 +464,17 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="100.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="100.54296875" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -485,56 +485,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>

--- a/Состояние работы.xlsx
+++ b/Состояние работы.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yp-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53734E5B-5F3E-410A-8260-D984EA4B9CF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F94C3E0-ACBD-4CE6-8781-04B4783344D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{105C7E11-8444-4C91-AEB4-669563F62DA7}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{105C7E11-8444-4C91-AEB4-669563F62DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +86,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -96,12 +103,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -109,6 +110,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,12 +147,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -464,17 +472,17 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.54296875" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="100.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -485,60 +493,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="2"/>
     </row>
   </sheetData>

--- a/Состояние работы.xlsx
+++ b/Состояние работы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53734E5B-5F3E-410A-8260-D984EA4B9CF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF98D60E-4CF6-4107-8F83-1D43579550C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{105C7E11-8444-4C91-AEB4-669563F62DA7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Теория</t>
   </si>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +81,14 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -140,13 +148,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -464,7 +473,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -511,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">

--- a/Состояние работы.xlsx
+++ b/Состояние работы.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yp-python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63E31AF-ECB0-4ACD-9C60-5EAC7D0647E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA59B646-D7D0-45FB-A67E-588820EB9239}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{105C7E11-8444-4C91-AEB4-669563F62DA7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{105C7E11-8444-4C91-AEB4-669563F62DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Теория</t>
   </si>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +93,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +124,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -155,6 +175,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -472,17 +494,17 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="100.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="100.54296875" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -493,56 +515,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>

--- a/Состояние работы.xlsx
+++ b/Состояние работы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA59B646-D7D0-45FB-A67E-588820EB9239}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B0F0D3-6EA5-4D07-A56D-7ADC968E2B89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{105C7E11-8444-4C91-AEB4-669563F62DA7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
   <si>
     <t>Теория</t>
   </si>
@@ -102,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,12 +124,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -175,8 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -494,7 +487,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -548,14 +541,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">

--- a/Состояние работы.xlsx
+++ b/Состояние работы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B0F0D3-6EA5-4D07-A56D-7ADC968E2B89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D194A8D5-0FDF-486A-8119-ABEA5F19A87D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{105C7E11-8444-4C91-AEB4-669563F62DA7}"/>
   </bookViews>
@@ -161,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -170,6 +170,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -487,7 +488,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -548,14 +549,14 @@
         <v>7</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">

--- a/Состояние работы.xlsx
+++ b/Состояние работы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D194A8D5-0FDF-486A-8119-ABEA5F19A87D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D498213F-18D6-403B-9213-A63DCE96DBF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{105C7E11-8444-4C91-AEB4-669563F62DA7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Теория</t>
   </si>
@@ -102,18 +102,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -124,12 +118,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -161,16 +149,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -488,7 +474,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,57 +499,57 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
